--- a/encodingTimeSmallSelectivitySmallMem.xlsx
+++ b/encodingTimeSmallSelectivitySmallMem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Documents\Diplomatiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72433EE-230C-4BF1-ADE0-4B8672DFADB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE25A65-65EC-4F97-81B8-C452BC534D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13845" windowHeight="11385" activeTab="3" xr2:uid="{D6ED7457-EA34-4508-A8C9-33EE958C577E}"/>
+    <workbookView minimized="1" xWindow="465" yWindow="0" windowWidth="7500" windowHeight="6000" activeTab="3" xr2:uid="{D6ED7457-EA34-4508-A8C9-33EE958C577E}"/>
   </bookViews>
   <sheets>
     <sheet name="uniform" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
   <si>
     <t>RLE</t>
   </si>
@@ -56,26 +56,14 @@
   <si>
     <t>HYBRID_COLUMNAR</t>
   </si>
-  <si>
-    <t>cardinality: 10</t>
-  </si>
-  <si>
-    <t>cardinality: 100</t>
-  </si>
-  <si>
-    <t>cardinality: 1000</t>
-  </si>
-  <si>
-    <t>cardinality: 10000</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -109,8 +97,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -163,7 +151,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Encoding performance per cardinality</a:t>
+              <a:t>Encoding performance [uniform]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -242,24 +230,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -328,24 +317,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -414,24 +404,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -500,24 +491,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -586,24 +578,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -672,24 +665,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -764,24 +758,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1160,7 +1155,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Encoding performance per cardinality</a:t>
+              <a:t>Encoding performance [normal]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1239,24 +1234,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1325,24 +1321,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1411,24 +1408,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1497,24 +1495,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1583,24 +1582,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1669,24 +1669,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1761,24 +1762,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2157,7 +2159,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Encoding performance per cardinality</a:t>
+              <a:t>Encoding performance [exponential 1]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2236,24 +2238,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2322,24 +2325,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2408,24 +2412,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2494,24 +2499,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2580,24 +2586,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2666,24 +2673,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2758,24 +2766,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3154,7 +3163,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Encoding performance per cardinality</a:t>
+              <a:t>Encoding performance [exponential 2]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3233,24 +3242,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3319,24 +3329,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3405,24 +3416,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3491,24 +3503,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3577,24 +3590,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3663,24 +3677,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3755,24 +3770,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6752,7 +6768,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6765,17 +6781,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1">
         <v>10</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>1000</v>
+      </c>
+      <c r="E1">
+        <v>10000</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6909,7 +6925,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6922,17 +6938,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1">
         <v>10</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>1000</v>
+      </c>
+      <c r="E1">
+        <v>10000</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7065,7 +7081,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7078,17 +7094,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1">
         <v>10</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>1000</v>
+      </c>
+      <c r="E1">
+        <v>10000</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7221,7 +7237,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7234,17 +7250,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1">
         <v>10</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>1000</v>
+      </c>
+      <c r="E1">
+        <v>10000</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
